--- a/inst/extdata/examples/xlsx/investment-nl.xlsx
+++ b/inst/extdata/examples/xlsx/investment-nl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t xml:space="preserve">left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -553,7 +559,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -571,30 +585,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>300</v>
@@ -611,10 +625,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>200</v>
@@ -631,10 +645,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>30</v>
@@ -651,10 +665,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
@@ -671,10 +685,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
       </c>
       <c r="C6" t="n">
         <v>150</v>
@@ -691,10 +705,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>10</v>
